--- a/biology/Neurosciences/Otto_Deiters/Otto_Deiters.xlsx
+++ b/biology/Neurosciences/Otto_Deiters/Otto_Deiters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Friedrich Karl Deiters (15 novembre 1834 - 5 décembre 1863) est un neuroanatomiste allemand. Il est né à Bonn, a étudié à l'Université de Bonn, où il a passé la majeure partie de sa carrière. Il est connu pour ses recherches microscopiques sur le cerveau et sur la moelle épinière.
 Vers 1860, Deiters apporta la description la plus précise de la cellule nerveuse qui existe à cette époque. Il identifie la cellule axonémale, qu'il nomme alors "axis cylinder" ou axone, et ses dendrites, qu'il classe parmi les cellules protoplasmiques (en). Il postule que les dendrites doivent fusionner pour constituer un réseau continu.
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Untersuchungen über die Lamina spiralis membranacea (1860), (incluant le traité sur la cellule de Deiters)
 Untersuchungen über Gehirn und Rückenmark des Menschen und der Säugethiere : (édité par Max Schultze) - Braunschweig : Vieweg, (1865)</t>
